--- a/Testcases Sheet.xlsx
+++ b/Testcases Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Testcases To Automate (Scenarios)</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Validate User is able to signup/register</t>
   </si>
   <si>
-    <t>Validate user is able to login</t>
-  </si>
-  <si>
     <t>Validate Search functionality returns search results as per search keyword</t>
   </si>
   <si>
@@ -51,6 +48,12 @@
   </si>
   <si>
     <t>Click Twitter Image and verify if it takes to home page or not</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,37 +94,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -135,63 +108,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,79 +396,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
